--- a/Offline/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{955E2A1F-2DBA-411A-85F1-738AE7F7CAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB528B8-B0E6-4D62-B545-E50457026470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="AI-Junior" sheetId="15" r:id="rId5"/>
     <sheet name="Home" sheetId="1" r:id="rId6"/>
     <sheet name="Artworks" sheetId="12" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MarketingPlan!$N$1:$P$53</definedName>
@@ -2669,25 +2670,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="141" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" style="141" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="141" customWidth="1"/>
-    <col min="3" max="12" width="11.44140625" style="141" customWidth="1"/>
-    <col min="13" max="13" width="1.44140625" style="141" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="141" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" style="141" customWidth="1"/>
-    <col min="16" max="16" width="6.77734375" style="141" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.46484375" style="141" customWidth="1"/>
+    <col min="13" max="13" width="1.46484375" style="141" customWidth="1"/>
+    <col min="14" max="14" width="7.1328125" style="141" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.1328125" style="141" customWidth="1"/>
+    <col min="16" max="16" width="6.796875" style="141" bestFit="1" customWidth="1"/>
     <col min="17" max="47" width="13.6640625" style="141" customWidth="1"/>
     <col min="48" max="16384" width="14.6640625" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="37.15" x14ac:dyDescent="0.4">
       <c r="A1" s="144" t="s">
         <v>169</v>
       </c>
@@ -2735,7 +2736,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="154" t="s">
         <v>170</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="156"/>
       <c r="B3" s="144" t="s">
         <v>369</v>
@@ -2789,7 +2790,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="156"/>
       <c r="B4" s="144" t="s">
         <v>328</v>
@@ -2815,7 +2816,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="155"/>
       <c r="B5" s="144" t="s">
         <v>368</v>
@@ -2841,7 +2842,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="154" t="s">
         <v>165</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="156"/>
       <c r="B7" s="144" t="s">
         <v>180</v>
@@ -2895,7 +2896,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="156"/>
       <c r="B8" s="144" t="s">
         <v>189</v>
@@ -2921,7 +2922,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="155"/>
       <c r="B9" s="144" t="s">
         <v>183</v>
@@ -2947,7 +2948,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="154" t="s">
         <v>367</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="156"/>
       <c r="B11" s="144" t="s">
         <v>365</v>
@@ -3001,7 +3002,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="155"/>
       <c r="B12" s="144" t="s">
         <v>182</v>
@@ -3027,7 +3028,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="154" t="s">
         <v>166</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="156"/>
       <c r="B14" s="144" t="s">
         <v>190</v>
@@ -3081,7 +3082,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="156"/>
       <c r="B15" s="144" t="s">
         <v>187</v>
@@ -3107,7 +3108,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="155"/>
       <c r="B16" s="144" t="s">
         <v>184</v>
@@ -3133,7 +3134,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="154" t="s">
         <v>167</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="155"/>
       <c r="B18" s="144" t="s">
         <v>186</v>
@@ -3187,7 +3188,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="144" t="s">
         <v>168</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N20" s="146" t="s">
         <v>294</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N21" s="146" t="s">
         <v>295</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N22" s="146" t="s">
         <v>296</v>
       </c>
@@ -3248,7 +3249,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N23" s="146" t="s">
         <v>311</v>
       </c>
@@ -3259,7 +3260,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N24" s="146" t="s">
         <v>297</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N25" s="146" t="s">
         <v>298</v>
       </c>
@@ -3281,7 +3282,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N26" s="146" t="s">
         <v>299</v>
       </c>
@@ -3292,7 +3293,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N27" s="146" t="s">
         <v>300</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N28" s="146" t="s">
         <v>301</v>
       </c>
@@ -3314,7 +3315,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N29" s="146" t="s">
         <v>302</v>
       </c>
@@ -3325,7 +3326,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N30" s="146" t="s">
         <v>312</v>
       </c>
@@ -3336,7 +3337,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N31" s="146" t="s">
         <v>303</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N32" s="146" t="s">
         <v>304</v>
       </c>
@@ -3358,7 +3359,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N33" s="146" t="s">
         <v>305</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N34" s="146" t="s">
         <v>306</v>
       </c>
@@ -3380,7 +3381,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N35" s="146" t="s">
         <v>307</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N36" s="146" t="s">
         <v>308</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N37" s="146" t="s">
         <v>315</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N38" s="146" t="s">
         <v>316</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N39" s="146" t="s">
         <v>318</v>
       </c>
@@ -3435,7 +3436,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N40" s="146" t="s">
         <v>319</v>
       </c>
@@ -3446,7 +3447,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N41" s="146" t="s">
         <v>320</v>
       </c>
@@ -3457,7 +3458,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N42" s="146" t="s">
         <v>321</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N43" s="146" t="s">
         <v>330</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N44" s="146" t="s">
         <v>331</v>
       </c>
@@ -3490,7 +3491,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N45" s="146" t="s">
         <v>332</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N46" s="146" t="s">
         <v>333</v>
       </c>
@@ -3512,7 +3513,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N47" s="146" t="s">
         <v>334</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N48" s="146" t="s">
         <v>335</v>
       </c>
@@ -3534,7 +3535,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N49" s="146" t="s">
         <v>336</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N50" s="146" t="s">
         <v>337</v>
       </c>
@@ -3556,7 +3557,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N51" s="146" t="s">
         <v>338</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N52" s="146" t="s">
         <v>339</v>
       </c>
@@ -3578,7 +3579,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="N53" s="146" t="s">
         <v>340</v>
       </c>
@@ -3589,36 +3590,36 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
@@ -3644,34 +3645,34 @@
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.1328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1" s="137" t="s">
         <v>89</v>
       </c>
@@ -3742,7 +3743,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2" s="138">
         <v>1</v>
       </c>
@@ -3812,7 +3813,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A3" s="138">
         <v>2</v>
       </c>
@@ -3882,7 +3883,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A4" s="138">
         <v>3</v>
       </c>
@@ -3952,7 +3953,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A5" s="138">
         <v>4</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A6" s="138"/>
       <c r="B6" s="138" t="s">
         <v>120</v>
@@ -4072,7 +4073,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A7" s="138"/>
       <c r="B7" s="138" t="s">
         <v>121</v>
@@ -4122,7 +4123,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A8" s="138"/>
       <c r="B8" s="138" t="s">
         <v>122</v>
@@ -4172,7 +4173,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A9" s="138"/>
       <c r="B9" s="138"/>
       <c r="C9" s="138"/>
@@ -4220,7 +4221,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A10" s="138"/>
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
@@ -4268,7 +4269,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A11" s="138"/>
       <c r="B11" s="138"/>
       <c r="C11" s="138"/>
@@ -4316,7 +4317,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A12" s="138"/>
       <c r="B12" s="138"/>
       <c r="C12" s="138"/>
@@ -4364,7 +4365,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A13" s="138"/>
       <c r="B13" s="138"/>
       <c r="C13" s="138"/>
@@ -4412,7 +4413,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A14" s="138"/>
       <c r="B14" s="138"/>
       <c r="C14" s="138"/>
@@ -4460,7 +4461,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A15" s="138"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
@@ -4508,7 +4509,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A16" s="138"/>
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
@@ -4556,7 +4557,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A17" s="138"/>
       <c r="B17" s="138"/>
       <c r="C17" s="138"/>
@@ -4604,7 +4605,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A18" s="138"/>
       <c r="B18" s="138"/>
       <c r="C18" s="138"/>
@@ -4652,7 +4653,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A19" s="138"/>
       <c r="B19" s="138"/>
       <c r="C19" s="138"/>
@@ -4700,7 +4701,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A20" s="138"/>
       <c r="B20" s="138"/>
       <c r="C20" s="138"/>
@@ -4748,7 +4749,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A21" s="138"/>
       <c r="B21" s="138"/>
       <c r="C21" s="138"/>
@@ -4796,7 +4797,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A22" s="138"/>
       <c r="B22" s="138"/>
       <c r="C22" s="138"/>
@@ -4844,7 +4845,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A23" s="138"/>
       <c r="B23" s="138"/>
       <c r="C23" s="138"/>
@@ -4892,7 +4893,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A24" s="138"/>
       <c r="B24" s="138"/>
       <c r="C24" s="138"/>
@@ -4940,7 +4941,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A25" s="138"/>
       <c r="B25" s="138"/>
       <c r="C25" s="138"/>
@@ -4988,7 +4989,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A26" s="138"/>
       <c r="B26" s="138"/>
       <c r="C26" s="138"/>
@@ -5036,7 +5037,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A27" s="138"/>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
@@ -5084,7 +5085,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A28" s="138"/>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -5132,7 +5133,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A29" s="138"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
@@ -5180,7 +5181,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A30" s="138"/>
       <c r="B30" s="138"/>
       <c r="C30" s="138"/>
@@ -5228,7 +5229,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A31" s="138"/>
       <c r="B31" s="138"/>
       <c r="C31" s="138"/>
@@ -5276,7 +5277,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A32" s="138"/>
       <c r="B32" s="138"/>
       <c r="C32" s="138"/>
@@ -5324,7 +5325,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A33" s="138"/>
       <c r="B33" s="138"/>
       <c r="C33" s="138"/>
@@ -5372,7 +5373,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A34" s="138"/>
       <c r="B34" s="138"/>
       <c r="C34" s="138"/>
@@ -5420,7 +5421,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A35" s="138"/>
       <c r="B35" s="138"/>
       <c r="C35" s="138"/>
@@ -5468,7 +5469,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A36" s="138"/>
       <c r="B36" s="138"/>
       <c r="C36" s="138"/>
@@ -5516,7 +5517,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A37" s="138"/>
       <c r="B37" s="138"/>
       <c r="C37" s="138"/>
@@ -5564,7 +5565,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A38" s="138"/>
       <c r="B38" s="138"/>
       <c r="C38" s="138"/>
@@ -5612,7 +5613,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A39" s="138"/>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
@@ -5660,7 +5661,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A40" s="138"/>
       <c r="B40" s="138"/>
       <c r="C40" s="138"/>
@@ -5708,7 +5709,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A41" s="138"/>
       <c r="B41" s="138"/>
       <c r="C41" s="138"/>
@@ -5756,7 +5757,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A42" s="138"/>
       <c r="B42" s="138"/>
       <c r="C42" s="138"/>
@@ -5804,7 +5805,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A43" s="138"/>
       <c r="B43" s="138"/>
       <c r="C43" s="138"/>
@@ -5852,7 +5853,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5872,7 +5873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F56" t="s">
         <v>127</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F57" t="s">
         <v>129</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F58" t="s">
         <v>130</v>
       </c>
@@ -5905,7 +5906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F59" t="s">
         <v>132</v>
       </c>
@@ -5916,7 +5917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F60" t="s">
         <v>133</v>
       </c>
@@ -5927,7 +5928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F61" t="s">
         <v>134</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F62" t="s">
         <v>135</v>
       </c>
@@ -5949,7 +5950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F63" t="s">
         <v>137</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F64" t="s">
         <v>138</v>
       </c>
@@ -5971,7 +5972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F65" t="s">
         <v>139</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F66" t="s">
         <v>141</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F67" t="s">
         <v>143</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F68" t="s">
         <v>144</v>
       </c>
@@ -6015,7 +6016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F69" t="s">
         <v>145</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F70" t="s">
         <v>147</v>
       </c>
@@ -6037,7 +6038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F79" t="s">
         <v>152</v>
       </c>
@@ -6068,7 +6069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="F80" t="s">
         <v>154</v>
       </c>
@@ -6079,7 +6080,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F81" t="s">
         <v>156</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F82" t="s">
         <v>158</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F83" t="s">
         <v>159</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F84" t="s">
         <v>161</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
       <c r="F85" t="s">
         <v>163</v>
       </c>
@@ -6150,14 +6151,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="143" t="s">
         <v>235</v>
       </c>
@@ -6168,107 +6169,107 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" s="143" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="C24" s="147" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" ht="43.9" x14ac:dyDescent="0.45">
       <c r="C25" s="147" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="C26" s="147" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
       <c r="C27" s="147" t="s">
         <v>374</v>
       </c>
@@ -6287,16 +6288,16 @@
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="148" t="s">
         <v>325</v>
       </c>
@@ -6310,112 +6311,112 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
         <v>227</v>
       </c>
@@ -6436,14 +6437,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="143" t="s">
         <v>235</v>
       </c>
@@ -6454,87 +6455,87 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
         <v>232</v>
       </c>
@@ -6555,32 +6556,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.53125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.1328125" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1328125" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="36.86328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6601,7 +6602,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3"/>
       <c r="B2" s="159" t="s">
         <v>29</v>
@@ -6644,7 +6645,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3"/>
       <c r="B3" s="160"/>
       <c r="C3" s="162"/>
@@ -6692,7 +6693,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -6757,7 +6758,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -6822,7 +6823,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -6887,7 +6888,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -6952,7 +6953,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -7017,7 +7018,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -7082,7 +7083,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -7147,7 +7148,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -7212,7 +7213,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -7277,7 +7278,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -7342,7 +7343,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -7407,7 +7408,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -7453,7 +7454,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -7499,7 +7500,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -7545,7 +7546,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -7591,7 +7592,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -7637,7 +7638,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -7683,7 +7684,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -7729,7 +7730,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -7775,7 +7776,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -7821,7 +7822,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -7867,7 +7868,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -7913,7 +7914,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -7959,7 +7960,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -8005,7 +8006,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -8051,7 +8052,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -8097,7 +8098,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -8143,7 +8144,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -8220,14 +8221,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:458" ht="51.75" x14ac:dyDescent="0.45">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -8712,7 +8713,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -8748,7 +8749,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -8781,7 +8782,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:458" ht="160.9" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:458" ht="99" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -8865,7 +8866,7 @@
       <c r="AO5" s="142"/>
       <c r="AP5" s="142"/>
     </row>
-    <row r="6" spans="1:458" ht="96" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:458" ht="99" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -8904,7 +8905,7 @@
       <c r="AO6" s="142"/>
       <c r="AP6" s="142"/>
     </row>
-    <row r="7" spans="1:458" ht="132" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:458" ht="123.75" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -8943,7 +8944,7 @@
       <c r="AO7" s="142"/>
       <c r="AP7" s="142"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -8976,7 +8977,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -9009,7 +9010,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -9042,7 +9043,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -9075,7 +9076,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -9108,7 +9109,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -9141,7 +9142,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -9174,7 +9175,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -9207,7 +9208,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -9240,7 +9241,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -9273,7 +9274,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -9309,7 +9310,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -9342,7 +9343,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -9375,7 +9376,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -9408,7 +9409,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -9441,7 +9442,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -9474,7 +9475,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -9507,7 +9508,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -9540,7 +9541,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -9573,7 +9574,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -9606,7 +9607,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -9639,7 +9640,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -9672,7 +9673,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -9705,7 +9706,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -9738,7 +9739,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -9771,7 +9772,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>88</v>
       </c>
@@ -9809,4 +9810,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Offline/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showObjects="none"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Offline\Marketing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB528B8-B0E6-4D62-B545-E50457026470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C1219-9759-4A63-9AAF-61C1E2EDB407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="420">
   <si>
     <t>Medium</t>
   </si>
@@ -1184,13 +1184,136 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>A.K. Ghosh</t>
+  </si>
+  <si>
+    <t>Ram Mohan</t>
+  </si>
+  <si>
+    <t>Maharshi</t>
+  </si>
+  <si>
+    <t>Future Foundation</t>
+  </si>
+  <si>
+    <t>G.D. Birla</t>
+  </si>
+  <si>
+    <t>Garia More</t>
+  </si>
+  <si>
+    <t>Andrews College</t>
+  </si>
+  <si>
+    <t>Kabi Nazrul</t>
+  </si>
+  <si>
+    <t>Khudiram Metro</t>
+  </si>
+  <si>
+    <t>45 More</t>
+  </si>
+  <si>
+    <t>Ganguly Bagan</t>
+  </si>
+  <si>
+    <t>IRIS</t>
+  </si>
+  <si>
+    <t>Baghajatin</t>
+  </si>
+  <si>
+    <t>Highland Park</t>
+  </si>
+  <si>
+    <t>Baghajatin Stn</t>
+  </si>
+  <si>
+    <t>DPS Rubi Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jadavpur </t>
+  </si>
+  <si>
+    <t>Mukundopur</t>
+  </si>
+  <si>
+    <t>Indus Valley</t>
+  </si>
+  <si>
+    <t>Heritage School</t>
+  </si>
+  <si>
+    <t>Sitala Mandir</t>
+  </si>
+  <si>
+    <t>Mainak Gardens</t>
+  </si>
+  <si>
+    <t>Mahamayatola</t>
+  </si>
+  <si>
+    <t>Future Boral</t>
+  </si>
+  <si>
+    <t>Kamalgazi</t>
+  </si>
+  <si>
+    <t>Garia Stn</t>
+  </si>
+  <si>
+    <t>Panchpota</t>
+  </si>
+  <si>
+    <t>Future School</t>
+  </si>
+  <si>
+    <t>Swami Vivekananda</t>
+  </si>
+  <si>
+    <t>Devlok Decassa</t>
+  </si>
+  <si>
+    <t>Future Sonarpur</t>
+  </si>
+  <si>
+    <t>Welland Goldsmith</t>
+  </si>
+  <si>
+    <t>Patuli More</t>
+  </si>
+  <si>
+    <t>Asabori</t>
+  </si>
+  <si>
+    <t>Andrews Tech College</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Niva Ananda</t>
+  </si>
+  <si>
+    <t>New Garia Stn</t>
+  </si>
+  <si>
+    <t>Netaji Subash</t>
+  </si>
+  <si>
+    <t>Bengal Ambuja</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1282,6 +1405,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Oxygen"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Oxygen"/>
     </font>
   </fonts>
@@ -1902,7 +2030,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2387,6 +2515,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2675,20 +2810,20 @@
       <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="12.4" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.6640625" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" style="141" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="141" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="141" customWidth="1"/>
-    <col min="3" max="12" width="11.46484375" style="141" customWidth="1"/>
-    <col min="13" max="13" width="1.46484375" style="141" customWidth="1"/>
-    <col min="14" max="14" width="7.1328125" style="141" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.1328125" style="141" customWidth="1"/>
-    <col min="16" max="16" width="6.796875" style="141" bestFit="1" customWidth="1"/>
+    <col min="3" max="12" width="11.44140625" style="141" customWidth="1"/>
+    <col min="13" max="13" width="1.44140625" style="141" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="141" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" style="141" customWidth="1"/>
+    <col min="16" max="16" width="6.77734375" style="141" bestFit="1" customWidth="1"/>
     <col min="17" max="47" width="13.6640625" style="141" customWidth="1"/>
     <col min="48" max="16384" width="14.6640625" style="141"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="37.15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="144" t="s">
         <v>169</v>
       </c>
@@ -2736,7 +2871,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="154" t="s">
         <v>170</v>
       </c>
@@ -2764,7 +2899,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="156"/>
       <c r="B3" s="144" t="s">
         <v>369</v>
@@ -2790,7 +2925,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="156"/>
       <c r="B4" s="144" t="s">
         <v>328</v>
@@ -2816,7 +2951,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="155"/>
       <c r="B5" s="144" t="s">
         <v>368</v>
@@ -2842,7 +2977,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="154" t="s">
         <v>165</v>
       </c>
@@ -2870,7 +3005,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="156"/>
       <c r="B7" s="144" t="s">
         <v>180</v>
@@ -2896,7 +3031,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="156"/>
       <c r="B8" s="144" t="s">
         <v>189</v>
@@ -2922,7 +3057,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="155"/>
       <c r="B9" s="144" t="s">
         <v>183</v>
@@ -2948,7 +3083,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="154" t="s">
         <v>367</v>
       </c>
@@ -2976,7 +3111,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="156"/>
       <c r="B11" s="144" t="s">
         <v>365</v>
@@ -3002,7 +3137,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="144" t="s">
         <v>182</v>
@@ -3028,7 +3163,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="154" t="s">
         <v>166</v>
       </c>
@@ -3056,7 +3191,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="156"/>
       <c r="B14" s="144" t="s">
         <v>190</v>
@@ -3082,7 +3217,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="156"/>
       <c r="B15" s="144" t="s">
         <v>187</v>
@@ -3108,7 +3243,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="155"/>
       <c r="B16" s="144" t="s">
         <v>184</v>
@@ -3134,7 +3269,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="154" t="s">
         <v>167</v>
       </c>
@@ -3162,7 +3297,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="155"/>
       <c r="B18" s="144" t="s">
         <v>186</v>
@@ -3188,7 +3323,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="144" t="s">
         <v>168</v>
       </c>
@@ -3216,7 +3351,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N20" s="146" t="s">
         <v>294</v>
       </c>
@@ -3227,7 +3362,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N21" s="146" t="s">
         <v>295</v>
       </c>
@@ -3238,7 +3373,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N22" s="146" t="s">
         <v>296</v>
       </c>
@@ -3249,7 +3384,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N23" s="146" t="s">
         <v>311</v>
       </c>
@@ -3260,7 +3395,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N24" s="146" t="s">
         <v>297</v>
       </c>
@@ -3271,7 +3406,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N25" s="146" t="s">
         <v>298</v>
       </c>
@@ -3282,7 +3417,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N26" s="146" t="s">
         <v>299</v>
       </c>
@@ -3293,7 +3428,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N27" s="146" t="s">
         <v>300</v>
       </c>
@@ -3304,7 +3439,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N28" s="146" t="s">
         <v>301</v>
       </c>
@@ -3315,7 +3450,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N29" s="146" t="s">
         <v>302</v>
       </c>
@@ -3326,7 +3461,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N30" s="146" t="s">
         <v>312</v>
       </c>
@@ -3337,7 +3472,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N31" s="146" t="s">
         <v>303</v>
       </c>
@@ -3348,7 +3483,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N32" s="146" t="s">
         <v>304</v>
       </c>
@@ -3359,7 +3494,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N33" s="146" t="s">
         <v>305</v>
       </c>
@@ -3370,7 +3505,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N34" s="146" t="s">
         <v>306</v>
       </c>
@@ -3381,7 +3516,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N35" s="146" t="s">
         <v>307</v>
       </c>
@@ -3392,7 +3527,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N36" s="146" t="s">
         <v>308</v>
       </c>
@@ -3403,7 +3538,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N37" s="146" t="s">
         <v>315</v>
       </c>
@@ -3414,7 +3549,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N38" s="146" t="s">
         <v>316</v>
       </c>
@@ -3425,7 +3560,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N39" s="146" t="s">
         <v>318</v>
       </c>
@@ -3436,7 +3571,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N40" s="146" t="s">
         <v>319</v>
       </c>
@@ -3447,7 +3582,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N41" s="146" t="s">
         <v>320</v>
       </c>
@@ -3458,7 +3593,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N42" s="146" t="s">
         <v>321</v>
       </c>
@@ -3469,7 +3604,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N43" s="146" t="s">
         <v>330</v>
       </c>
@@ -3480,7 +3615,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N44" s="146" t="s">
         <v>331</v>
       </c>
@@ -3491,7 +3626,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N45" s="146" t="s">
         <v>332</v>
       </c>
@@ -3502,7 +3637,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N46" s="146" t="s">
         <v>333</v>
       </c>
@@ -3513,7 +3648,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N47" s="146" t="s">
         <v>334</v>
       </c>
@@ -3524,7 +3659,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N48" s="146" t="s">
         <v>335</v>
       </c>
@@ -3535,7 +3670,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N49" s="146" t="s">
         <v>336</v>
       </c>
@@ -3546,7 +3681,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N50" s="146" t="s">
         <v>337</v>
       </c>
@@ -3557,7 +3692,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N51" s="146" t="s">
         <v>338</v>
       </c>
@@ -3568,7 +3703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N52" s="146" t="s">
         <v>339</v>
       </c>
@@ -3579,7 +3714,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N53" s="146" t="s">
         <v>340</v>
       </c>
@@ -3590,36 +3725,36 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="14:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="N1:P53" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="5">
@@ -3645,34 +3780,34 @@
       <selection activeCell="W2" sqref="W2:W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.1328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.46484375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="137" t="s">
         <v>89</v>
       </c>
@@ -3743,7 +3878,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="138">
         <v>1</v>
       </c>
@@ -3813,7 +3948,7 @@
         <v>0.6048</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="138">
         <v>2</v>
       </c>
@@ -3883,7 +4018,7 @@
         <v>0.58879999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="138">
         <v>3</v>
       </c>
@@ -3953,7 +4088,7 @@
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="138">
         <v>4</v>
       </c>
@@ -4023,7 +4158,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="138"/>
       <c r="B6" s="138" t="s">
         <v>120</v>
@@ -4073,7 +4208,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="138"/>
       <c r="B7" s="138" t="s">
         <v>121</v>
@@ -4123,7 +4258,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="138"/>
       <c r="B8" s="138" t="s">
         <v>122</v>
@@ -4173,7 +4308,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="138"/>
       <c r="B9" s="138"/>
       <c r="C9" s="138"/>
@@ -4221,7 +4356,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="138"/>
       <c r="B10" s="138"/>
       <c r="C10" s="138"/>
@@ -4269,7 +4404,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="138"/>
       <c r="B11" s="138"/>
       <c r="C11" s="138"/>
@@ -4317,7 +4452,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="138"/>
       <c r="B12" s="138"/>
       <c r="C12" s="138"/>
@@ -4365,7 +4500,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="138"/>
       <c r="B13" s="138"/>
       <c r="C13" s="138"/>
@@ -4413,7 +4548,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="138"/>
       <c r="B14" s="138"/>
       <c r="C14" s="138"/>
@@ -4461,7 +4596,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="138"/>
       <c r="B15" s="138"/>
       <c r="C15" s="138"/>
@@ -4509,7 +4644,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="138"/>
       <c r="B16" s="138"/>
       <c r="C16" s="138"/>
@@ -4557,7 +4692,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="138"/>
       <c r="B17" s="138"/>
       <c r="C17" s="138"/>
@@ -4605,7 +4740,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="138"/>
       <c r="B18" s="138"/>
       <c r="C18" s="138"/>
@@ -4653,7 +4788,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="138"/>
       <c r="B19" s="138"/>
       <c r="C19" s="138"/>
@@ -4701,7 +4836,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="138"/>
       <c r="B20" s="138"/>
       <c r="C20" s="138"/>
@@ -4749,7 +4884,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="138"/>
       <c r="B21" s="138"/>
       <c r="C21" s="138"/>
@@ -4797,7 +4932,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="138"/>
       <c r="B22" s="138"/>
       <c r="C22" s="138"/>
@@ -4845,7 +4980,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="138"/>
       <c r="B23" s="138"/>
       <c r="C23" s="138"/>
@@ -4893,7 +5028,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="138"/>
       <c r="B24" s="138"/>
       <c r="C24" s="138"/>
@@ -4941,7 +5076,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="138"/>
       <c r="B25" s="138"/>
       <c r="C25" s="138"/>
@@ -4989,7 +5124,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="138"/>
       <c r="B26" s="138"/>
       <c r="C26" s="138"/>
@@ -5037,7 +5172,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="138"/>
       <c r="B27" s="138"/>
       <c r="C27" s="138"/>
@@ -5085,7 +5220,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="138"/>
       <c r="B28" s="138"/>
       <c r="C28" s="138"/>
@@ -5133,7 +5268,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="138"/>
       <c r="B29" s="138"/>
       <c r="C29" s="138"/>
@@ -5181,7 +5316,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="138"/>
       <c r="B30" s="138"/>
       <c r="C30" s="138"/>
@@ -5229,7 +5364,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="138"/>
       <c r="B31" s="138"/>
       <c r="C31" s="138"/>
@@ -5277,7 +5412,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="138"/>
       <c r="B32" s="138"/>
       <c r="C32" s="138"/>
@@ -5325,7 +5460,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="138"/>
       <c r="B33" s="138"/>
       <c r="C33" s="138"/>
@@ -5373,7 +5508,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="138"/>
       <c r="B34" s="138"/>
       <c r="C34" s="138"/>
@@ -5421,7 +5556,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="138"/>
       <c r="B35" s="138"/>
       <c r="C35" s="138"/>
@@ -5469,7 +5604,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="138"/>
       <c r="B36" s="138"/>
       <c r="C36" s="138"/>
@@ -5517,7 +5652,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="138"/>
       <c r="B37" s="138"/>
       <c r="C37" s="138"/>
@@ -5565,7 +5700,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="138"/>
       <c r="B38" s="138"/>
       <c r="C38" s="138"/>
@@ -5613,7 +5748,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="138"/>
       <c r="B39" s="138"/>
       <c r="C39" s="138"/>
@@ -5661,7 +5796,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="138"/>
       <c r="B40" s="138"/>
       <c r="C40" s="138"/>
@@ -5709,7 +5844,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="138"/>
       <c r="B41" s="138"/>
       <c r="C41" s="138"/>
@@ -5757,7 +5892,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="138"/>
       <c r="B42" s="138"/>
       <c r="C42" s="138"/>
@@ -5805,7 +5940,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="43" spans="1:23" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="138"/>
       <c r="B43" s="138"/>
       <c r="C43" s="138"/>
@@ -5853,7 +5988,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1</v>
       </c>
@@ -5873,7 +6008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F56" t="s">
         <v>127</v>
       </c>
@@ -5884,7 +6019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F57" t="s">
         <v>129</v>
       </c>
@@ -5895,7 +6030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F58" t="s">
         <v>130</v>
       </c>
@@ -5906,7 +6041,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F59" t="s">
         <v>132</v>
       </c>
@@ -5917,7 +6052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F60" t="s">
         <v>133</v>
       </c>
@@ -5928,7 +6063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F61" t="s">
         <v>134</v>
       </c>
@@ -5939,7 +6074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F62" t="s">
         <v>135</v>
       </c>
@@ -5950,7 +6085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F63" t="s">
         <v>137</v>
       </c>
@@ -5961,7 +6096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F64" t="s">
         <v>138</v>
       </c>
@@ -5972,7 +6107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F65" t="s">
         <v>139</v>
       </c>
@@ -5983,7 +6118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F66" t="s">
         <v>141</v>
       </c>
@@ -5994,7 +6129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F67" t="s">
         <v>143</v>
       </c>
@@ -6005,7 +6140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F68" t="s">
         <v>144</v>
       </c>
@@ -6016,7 +6151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F69" t="s">
         <v>145</v>
       </c>
@@ -6027,7 +6162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F70" t="s">
         <v>147</v>
       </c>
@@ -6038,7 +6173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6058,7 +6193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F79" t="s">
         <v>152</v>
       </c>
@@ -6069,7 +6204,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F80" t="s">
         <v>154</v>
       </c>
@@ -6080,7 +6215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F81" t="s">
         <v>156</v>
       </c>
@@ -6091,7 +6226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F82" t="s">
         <v>158</v>
       </c>
@@ -6102,7 +6237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F83" t="s">
         <v>159</v>
       </c>
@@ -6113,7 +6248,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F84" t="s">
         <v>161</v>
       </c>
@@ -6124,7 +6259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="6:8" x14ac:dyDescent="0.3">
       <c r="F85" t="s">
         <v>163</v>
       </c>
@@ -6151,14 +6286,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="143" t="s">
         <v>235</v>
       </c>
@@ -6169,107 +6304,107 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="143" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="24" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="147" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="43.9" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="C25" s="147" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="147" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="14.65" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="147" t="s">
         <v>374</v>
       </c>
@@ -6288,16 +6423,16 @@
       <selection activeCell="D2" sqref="D2:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.46484375" customWidth="1"/>
+    <col min="4" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="148" t="s">
         <v>325</v>
       </c>
@@ -6311,112 +6446,112 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>227</v>
       </c>
@@ -6437,14 +6572,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
-    <col min="3" max="4" width="52.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="143" t="s">
         <v>235</v>
       </c>
@@ -6455,87 +6590,87 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>232</v>
       </c>
@@ -6556,32 +6691,32 @@
       <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" style="1" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.1328125" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="5.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.109375" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.86328125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.86328125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.86328125" style="1"/>
+    <col min="20" max="20" width="36.88671875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.88671875" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="12" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6602,7 +6737,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="16.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="159" t="s">
         <v>29</v>
@@ -6645,7 +6780,7 @@
       </c>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:26" ht="25.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="160"/>
       <c r="C3" s="162"/>
@@ -6693,7 +6828,7 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="34">
         <v>1</v>
@@ -6758,7 +6893,7 @@
       <c r="U4" s="8"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="42">
         <v>2</v>
@@ -6823,7 +6958,7 @@
       <c r="U5" s="8"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="42">
         <v>3</v>
@@ -6888,7 +7023,7 @@
       <c r="U6" s="8"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="42">
         <v>4</v>
@@ -6953,7 +7088,7 @@
       <c r="U7" s="8"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="42">
         <v>5</v>
@@ -7018,7 +7153,7 @@
       <c r="U8" s="8"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="42">
         <v>6</v>
@@ -7083,7 +7218,7 @@
       <c r="U9" s="8"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="44">
         <v>7</v>
@@ -7148,7 +7283,7 @@
       <c r="U10" s="8"/>
       <c r="V10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="34">
         <v>8</v>
@@ -7213,7 +7348,7 @@
       <c r="U11" s="8"/>
       <c r="V11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="42">
         <v>9</v>
@@ -7278,7 +7413,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="12.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="42">
         <v>10</v>
@@ -7343,7 +7478,7 @@
       <c r="U13" s="8"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="12.75" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:26" ht="12.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="44">
         <v>11</v>
@@ -7408,7 +7543,7 @@
       <c r="U14" s="8"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="57">
         <v>12</v>
@@ -7454,7 +7589,7 @@
       <c r="U15" s="8"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="64">
         <v>13</v>
@@ -7500,7 +7635,7 @@
       <c r="U16" s="8"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="64">
         <v>14</v>
@@ -7546,7 +7681,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="64">
         <v>15</v>
@@ -7592,7 +7727,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="64">
         <v>16</v>
@@ -7638,7 +7773,7 @@
       <c r="U19" s="8"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="91">
         <v>17</v>
@@ -7684,7 +7819,7 @@
       <c r="U20" s="8"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="107">
         <v>18</v>
@@ -7730,7 +7865,7 @@
       <c r="U21" s="8"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="115">
         <v>19</v>
@@ -7776,7 +7911,7 @@
       <c r="U22" s="8"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="115">
         <v>20</v>
@@ -7822,7 +7957,7 @@
       <c r="U23" s="8"/>
       <c r="V23" s="9"/>
     </row>
-    <row r="24" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="117">
         <v>21</v>
@@ -7868,7 +8003,7 @@
       <c r="U24" s="8"/>
       <c r="V24" s="9"/>
     </row>
-    <row r="25" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="99">
         <v>22</v>
@@ -7914,7 +8049,7 @@
       <c r="U25" s="8"/>
       <c r="V25" s="9"/>
     </row>
-    <row r="26" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="76">
         <v>23</v>
@@ -7960,7 +8095,7 @@
       <c r="U26" s="8"/>
       <c r="V26" s="9"/>
     </row>
-    <row r="27" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3"/>
       <c r="B27" s="78">
         <v>24</v>
@@ -8006,7 +8141,7 @@
       <c r="U27" s="8"/>
       <c r="V27" s="9"/>
     </row>
-    <row r="28" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="71">
         <v>25</v>
@@ -8052,7 +8187,7 @@
       <c r="U28" s="8"/>
       <c r="V28" s="9"/>
     </row>
-    <row r="29" spans="1:22" ht="12.4" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="76">
         <v>26</v>
@@ -8098,7 +8233,7 @@
       <c r="U29" s="8"/>
       <c r="V29" s="9"/>
     </row>
-    <row r="30" spans="1:22" ht="12.75" hidden="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:22" ht="12.6" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="78">
         <v>27</v>
@@ -8144,7 +8279,7 @@
       <c r="U30" s="8"/>
       <c r="V30" s="9"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -8221,14 +8356,14 @@
       <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="458" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="458" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:458" ht="51.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:458" ht="55.2" x14ac:dyDescent="0.3">
       <c r="C1" s="133">
         <v>45052</v>
       </c>
@@ -8713,7 +8848,7 @@
       <c r="QO1" s="128"/>
       <c r="QP1" s="128"/>
     </row>
-    <row r="2" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:458" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -8749,7 +8884,7 @@
       <c r="AC2" s="132"/>
       <c r="AD2" s="132"/>
     </row>
-    <row r="3" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>66</v>
       </c>
@@ -8782,7 +8917,7 @@
       <c r="AC3" s="132"/>
       <c r="AD3" s="132"/>
     </row>
-    <row r="4" spans="1:458" ht="160.9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:458" ht="168" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>61</v>
       </c>
@@ -8827,7 +8962,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:458" ht="96" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -8866,7 +9001,7 @@
       <c r="AO5" s="142"/>
       <c r="AP5" s="142"/>
     </row>
-    <row r="6" spans="1:458" ht="99" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:458" ht="96" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>62</v>
       </c>
@@ -8905,7 +9040,7 @@
       <c r="AO6" s="142"/>
       <c r="AP6" s="142"/>
     </row>
-    <row r="7" spans="1:458" ht="123.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:458" ht="132" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>63</v>
       </c>
@@ -8944,7 +9079,7 @@
       <c r="AO7" s="142"/>
       <c r="AP7" s="142"/>
     </row>
-    <row r="8" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>67</v>
       </c>
@@ -8977,7 +9112,7 @@
       <c r="AC8" s="132"/>
       <c r="AD8" s="132"/>
     </row>
-    <row r="9" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -9010,7 +9145,7 @@
       <c r="AC9" s="132"/>
       <c r="AD9" s="132"/>
     </row>
-    <row r="10" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>69</v>
       </c>
@@ -9043,7 +9178,7 @@
       <c r="AC10" s="132"/>
       <c r="AD10" s="132"/>
     </row>
-    <row r="11" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>70</v>
       </c>
@@ -9076,7 +9211,7 @@
       <c r="AC11" s="132"/>
       <c r="AD11" s="132"/>
     </row>
-    <row r="12" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>71</v>
       </c>
@@ -9109,7 +9244,7 @@
       <c r="AC12" s="132"/>
       <c r="AD12" s="132"/>
     </row>
-    <row r="13" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>72</v>
       </c>
@@ -9142,7 +9277,7 @@
       <c r="AC13" s="132"/>
       <c r="AD13" s="132"/>
     </row>
-    <row r="14" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>73</v>
       </c>
@@ -9175,7 +9310,7 @@
       <c r="AC14" s="132"/>
       <c r="AD14" s="132"/>
     </row>
-    <row r="15" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>74</v>
       </c>
@@ -9208,7 +9343,7 @@
       <c r="AC15" s="132"/>
       <c r="AD15" s="132"/>
     </row>
-    <row r="16" spans="1:458" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:458" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>75</v>
       </c>
@@ -9241,7 +9376,7 @@
       <c r="AC16" s="132"/>
       <c r="AD16" s="132"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>76</v>
       </c>
@@ -9274,7 +9409,7 @@
       <c r="AC17" s="132"/>
       <c r="AD17" s="132"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -9310,7 +9445,7 @@
       <c r="AC18" s="132"/>
       <c r="AD18" s="132"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>78</v>
       </c>
@@ -9343,7 +9478,7 @@
       <c r="AC19" s="132"/>
       <c r="AD19" s="132"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>61</v>
       </c>
@@ -9376,7 +9511,7 @@
       <c r="AC20" s="132"/>
       <c r="AD20" s="132"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>60</v>
       </c>
@@ -9409,7 +9544,7 @@
       <c r="AC21" s="132"/>
       <c r="AD21" s="132"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>62</v>
       </c>
@@ -9442,7 +9577,7 @@
       <c r="AC22" s="132"/>
       <c r="AD22" s="132"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>63</v>
       </c>
@@ -9475,7 +9610,7 @@
       <c r="AC23" s="132"/>
       <c r="AD23" s="132"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -9508,7 +9643,7 @@
       <c r="AC24" s="132"/>
       <c r="AD24" s="132"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -9541,7 +9676,7 @@
       <c r="AC25" s="132"/>
       <c r="AD25" s="132"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -9574,7 +9709,7 @@
       <c r="AC26" s="132"/>
       <c r="AD26" s="132"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -9607,7 +9742,7 @@
       <c r="AC27" s="132"/>
       <c r="AD27" s="132"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -9640,7 +9775,7 @@
       <c r="AC28" s="132"/>
       <c r="AD28" s="132"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -9673,7 +9808,7 @@
       <c r="AC29" s="132"/>
       <c r="AD29" s="132"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -9706,7 +9841,7 @@
       <c r="AC30" s="132"/>
       <c r="AD30" s="132"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -9739,7 +9874,7 @@
       <c r="AC31" s="132"/>
       <c r="AD31" s="132"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -9772,7 +9907,7 @@
       <c r="AC32" s="132"/>
       <c r="AD32" s="132"/>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>88</v>
       </c>
@@ -9814,12 +9949,566 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.77734375" style="168" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="169" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="170" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="170" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
+      <c r="H1" s="170"/>
+      <c r="I1" s="170"/>
+      <c r="J1" s="170"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
+      <c r="J2" s="170"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="169">
+        <v>1</v>
+      </c>
+      <c r="B3" s="170" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="169">
+        <v>2</v>
+      </c>
+      <c r="B4" s="170" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="169">
+        <v>3</v>
+      </c>
+      <c r="B5" s="170" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="170"/>
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="169">
+        <v>4</v>
+      </c>
+      <c r="B6" s="170" t="s">
+        <v>383</v>
+      </c>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="169">
+        <v>5</v>
+      </c>
+      <c r="B7" s="170" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="170"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="169">
+        <v>6</v>
+      </c>
+      <c r="B8" s="170" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="169">
+        <v>7</v>
+      </c>
+      <c r="B9" s="170" t="s">
+        <v>386</v>
+      </c>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="169">
+        <v>8</v>
+      </c>
+      <c r="B10" s="170" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="170"/>
+      <c r="D10" s="170"/>
+      <c r="E10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="169">
+        <v>9</v>
+      </c>
+      <c r="B11" s="170" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="170"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="169">
+        <v>10</v>
+      </c>
+      <c r="B12" s="170" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="170"/>
+      <c r="D12" s="170"/>
+      <c r="E12" s="170"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="169">
+        <v>11</v>
+      </c>
+      <c r="B13" s="170" t="s">
+        <v>396</v>
+      </c>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="170"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="169">
+        <v>12</v>
+      </c>
+      <c r="B14" s="170" t="s">
+        <v>391</v>
+      </c>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="170"/>
+      <c r="F14" s="170"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="169">
+        <v>13</v>
+      </c>
+      <c r="B15" s="170" t="s">
+        <v>392</v>
+      </c>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="169">
+        <v>14</v>
+      </c>
+      <c r="B16" s="170" t="s">
+        <v>394</v>
+      </c>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="170"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="169">
+        <v>15</v>
+      </c>
+      <c r="B17" s="170" t="s">
+        <v>393</v>
+      </c>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="169">
+        <v>16</v>
+      </c>
+      <c r="B18" s="170" t="s">
+        <v>395</v>
+      </c>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="169">
+        <v>17</v>
+      </c>
+      <c r="B19" s="170" t="s">
+        <v>397</v>
+      </c>
+      <c r="C19" s="170"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="170"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="169">
+        <v>18</v>
+      </c>
+      <c r="B20" s="170" t="s">
+        <v>398</v>
+      </c>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="169">
+        <v>19</v>
+      </c>
+      <c r="B21" s="170" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="169">
+        <v>20</v>
+      </c>
+      <c r="B22" s="170" t="s">
+        <v>387</v>
+      </c>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="169">
+        <v>21</v>
+      </c>
+      <c r="B23" s="170" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="170"/>
+      <c r="D23" s="170"/>
+      <c r="E23" s="170"/>
+      <c r="F23" s="170"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="169">
+        <v>22</v>
+      </c>
+      <c r="B24" s="170" t="s">
+        <v>400</v>
+      </c>
+      <c r="C24" s="170"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="170"/>
+      <c r="F24" s="170"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="169">
+        <v>23</v>
+      </c>
+      <c r="B25" s="170" t="s">
+        <v>401</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="169">
+        <v>24</v>
+      </c>
+      <c r="B26" s="170" t="s">
+        <v>402</v>
+      </c>
+      <c r="C26" s="170"/>
+      <c r="D26" s="170"/>
+      <c r="E26" s="170"/>
+      <c r="F26" s="170"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="169">
+        <v>25</v>
+      </c>
+      <c r="B27" s="170" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="169">
+        <v>26</v>
+      </c>
+      <c r="B28" s="170" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="169">
+        <v>27</v>
+      </c>
+      <c r="B29" s="170" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="169">
+        <v>28</v>
+      </c>
+      <c r="B30" s="170" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="169">
+        <v>29</v>
+      </c>
+      <c r="B31" s="170" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="169">
+        <v>30</v>
+      </c>
+      <c r="B32" s="170" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="169">
+        <v>31</v>
+      </c>
+      <c r="B33" s="170" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="169">
+        <v>32</v>
+      </c>
+      <c r="B34" s="170" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="169">
+        <v>33</v>
+      </c>
+      <c r="B35" s="170" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="169">
+        <v>34</v>
+      </c>
+      <c r="B36" s="170" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="169">
+        <v>35</v>
+      </c>
+      <c r="B37" s="170" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="169">
+        <v>36</v>
+      </c>
+      <c r="B38" s="170" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="169">
+        <v>37</v>
+      </c>
+      <c r="B39" s="170" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="169">
+        <v>38</v>
+      </c>
+      <c r="B40" s="170" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="169">
+        <v>39</v>
+      </c>
+      <c r="B41" s="170" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="169">
+        <v>40</v>
+      </c>
+      <c r="B42" s="170" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="169">
+        <v>41</v>
+      </c>
+      <c r="B43" s="170" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/Marketing/MarketingMasterPlan-May-2023.xlsx
+++ b/Offline/Marketing/MarketingMasterPlan-May-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\Marketing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48C1219-9759-4A63-9AAF-61C1E2EDB407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9942C8A-7881-48FC-9418-3FFDE9E83C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="779" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MarketingPlan" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="453">
   <si>
     <t>Medium</t>
   </si>
@@ -1307,6 +1307,105 @@
   </si>
   <si>
     <t>Bengal Ambuja</t>
+  </si>
+  <si>
+    <t>South Point School</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Talk to Pradipta</t>
+  </si>
+  <si>
+    <t>B.D. Memorial School</t>
+  </si>
+  <si>
+    <t>Talk to Pradipta,Hema</t>
+  </si>
+  <si>
+    <t>Scouting for nursery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focus on student as guardians does not go </t>
+  </si>
+  <si>
+    <t>Avidipta-1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Utkolika</t>
+  </si>
+  <si>
+    <t>Amrita stays</t>
+  </si>
+  <si>
+    <t>Nayabad</t>
+  </si>
+  <si>
+    <t>Ambuja MIG</t>
+  </si>
+  <si>
+    <t>Ambuja HIG</t>
+  </si>
+  <si>
+    <t>New Garia Shib Mandir</t>
+  </si>
+  <si>
+    <t>Metropolis Mall</t>
+  </si>
+  <si>
+    <t>Acropolis Mall</t>
+  </si>
+  <si>
+    <t>Orbit Mall</t>
+  </si>
+  <si>
+    <t>South City</t>
+  </si>
+  <si>
+    <t>Wood Square Mall</t>
+  </si>
+  <si>
+    <t>Sophisticated Presentaion</t>
+  </si>
+  <si>
+    <t>Handout.</t>
+  </si>
+  <si>
+    <t>Meghnad Shah Institute</t>
+  </si>
+  <si>
+    <t>Birla High School</t>
+  </si>
+  <si>
+    <t>Heritage Engg Coll</t>
+  </si>
+  <si>
+    <t>Heritage General College</t>
+  </si>
+  <si>
+    <t>Panchashayar</t>
+  </si>
+  <si>
+    <t>Madurdaha</t>
+  </si>
+  <si>
+    <t>Ajaynagar</t>
+  </si>
+  <si>
+    <t>Ajaynagar Ambuja</t>
+  </si>
+  <si>
+    <t>Calcutta Greens</t>
+  </si>
+  <si>
+    <t>Calcutta Greens to Highland Park Road</t>
+  </si>
+  <si>
+    <t>Nandan Kanon</t>
+  </si>
+  <si>
+    <t>Raipur Metro Cash &amp; Carry</t>
   </si>
 </sst>
 </file>
@@ -2473,6 +2572,13 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2515,13 +2621,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2872,7 +2971,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="157" t="s">
         <v>170</v>
       </c>
       <c r="B2" s="144" t="s">
@@ -2900,7 +2999,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="156"/>
+      <c r="A3" s="159"/>
       <c r="B3" s="144" t="s">
         <v>369</v>
       </c>
@@ -2926,7 +3025,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="156"/>
+      <c r="A4" s="159"/>
       <c r="B4" s="144" t="s">
         <v>328</v>
       </c>
@@ -2952,7 +3051,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="155"/>
+      <c r="A5" s="158"/>
       <c r="B5" s="144" t="s">
         <v>368</v>
       </c>
@@ -2978,7 +3077,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="157" t="s">
         <v>165</v>
       </c>
       <c r="B6" s="144" t="s">
@@ -3006,7 +3105,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="156"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="144" t="s">
         <v>180</v>
       </c>
@@ -3032,7 +3131,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="156"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="144" t="s">
         <v>189</v>
       </c>
@@ -3058,7 +3157,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="155"/>
+      <c r="A9" s="158"/>
       <c r="B9" s="144" t="s">
         <v>183</v>
       </c>
@@ -3084,7 +3183,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="157" t="s">
         <v>367</v>
       </c>
       <c r="B10" s="144" t="s">
@@ -3112,7 +3211,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="156"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="144" t="s">
         <v>365</v>
       </c>
@@ -3138,7 +3237,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="155"/>
+      <c r="A12" s="158"/>
       <c r="B12" s="144" t="s">
         <v>182</v>
       </c>
@@ -3164,7 +3263,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="154" t="s">
+      <c r="A13" s="157" t="s">
         <v>166</v>
       </c>
       <c r="B13" s="144" t="s">
@@ -3192,7 +3291,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="156"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="144" t="s">
         <v>190</v>
       </c>
@@ -3218,7 +3317,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="156"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="144" t="s">
         <v>187</v>
       </c>
@@ -3244,7 +3343,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="155"/>
+      <c r="A16" s="158"/>
       <c r="B16" s="144" t="s">
         <v>184</v>
       </c>
@@ -3270,7 +3369,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="157" t="s">
         <v>167</v>
       </c>
       <c r="B17" s="144" t="s">
@@ -3298,7 +3397,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="155"/>
+      <c r="A18" s="158"/>
       <c r="B18" s="144" t="s">
         <v>186</v>
       </c>
@@ -6739,57 +6838,57 @@
     </row>
     <row r="2" spans="1:26" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="164" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="161" t="s">
+      <c r="E2" s="164" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="161" t="s">
+      <c r="F2" s="164" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="161" t="s">
+      <c r="G2" s="164" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="163" t="s">
+      <c r="H2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="168" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="167"/>
-      <c r="T2" s="157" t="s">
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="160" t="s">
         <v>24</v>
       </c>
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:26" ht="24.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
-      <c r="B3" s="160"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="162"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="165"/>
+      <c r="E3" s="165"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="165"/>
       <c r="J3" s="32" t="s">
         <v>22</v>
       </c>
@@ -6820,7 +6919,7 @@
       <c r="S3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="158"/>
+      <c r="T3" s="161"/>
       <c r="U3" s="5"/>
       <c r="V3" s="6"/>
       <c r="W3" s="7"/>
@@ -9949,563 +10048,823 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C788D979-7CB4-4DA8-AE6B-ABB33AE1CBEA}">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" style="168" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" style="154" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="170" t="s">
+      <c r="B1" s="156" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="170" t="s">
+      <c r="C1" s="156" t="s">
         <v>379</v>
       </c>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="170"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="170"/>
-      <c r="J1" s="170"/>
+      <c r="D1" s="156" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="169"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
-      <c r="D2" s="170"/>
-      <c r="E2" s="170"/>
-      <c r="F2" s="170"/>
-      <c r="G2" s="170"/>
-      <c r="H2" s="170"/>
-      <c r="I2" s="170"/>
-      <c r="J2" s="170"/>
+      <c r="A2" s="155"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="169">
-        <v>1</v>
-      </c>
-      <c r="B3" s="170" t="s">
+      <c r="A3" s="155">
+        <v>1</v>
+      </c>
+      <c r="B3" s="156" t="s">
         <v>380</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="169">
+      <c r="A4" s="155">
         <v>2</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="156" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="169">
+      <c r="A5" s="155">
         <v>3</v>
       </c>
-      <c r="B5" s="170" t="s">
+      <c r="B5" s="156" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="169">
+      <c r="A6" s="155">
         <v>4</v>
       </c>
-      <c r="B6" s="170" t="s">
+      <c r="B6" s="156" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
+      <c r="C6" s="156">
+        <v>5</v>
+      </c>
+      <c r="D6" s="156" t="s">
+        <v>422</v>
+      </c>
+      <c r="E6" s="156" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="156"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="169">
+      <c r="A7" s="155">
         <v>5</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="156" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
+      <c r="C7" s="156">
+        <v>5</v>
+      </c>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="169">
+      <c r="A8" s="155">
         <v>6</v>
       </c>
-      <c r="B8" s="170" t="s">
+      <c r="B8" s="156" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="169">
+      <c r="A9" s="155">
         <v>7</v>
       </c>
-      <c r="B9" s="170" t="s">
+      <c r="B9" s="156" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="169">
+      <c r="A10" s="155">
         <v>8</v>
       </c>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="156" t="s">
         <v>389</v>
       </c>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="156"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="156"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="169">
+      <c r="A11" s="155">
         <v>9</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="156" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="170"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="156"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="169">
+      <c r="A12" s="155">
         <v>10</v>
       </c>
-      <c r="B12" s="170" t="s">
+      <c r="B12" s="156" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="170"/>
-      <c r="D12" s="170"/>
-      <c r="E12" s="170"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="169">
+      <c r="A13" s="155">
         <v>11</v>
       </c>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="156" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
-      <c r="E13" s="170"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="169">
+      <c r="A14" s="155">
         <v>12</v>
       </c>
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="156" t="s">
         <v>391</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
-      <c r="E14" s="170"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="169">
+      <c r="A15" s="155">
         <v>13</v>
       </c>
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="156" t="s">
         <v>392</v>
       </c>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="169">
+      <c r="A16" s="155">
         <v>14</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="156" t="s">
         <v>394</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="169">
+      <c r="A17" s="155">
         <v>15</v>
       </c>
-      <c r="B17" s="170" t="s">
+      <c r="B17" s="156" t="s">
         <v>393</v>
       </c>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="169">
+      <c r="A18" s="155">
         <v>16</v>
       </c>
-      <c r="B18" s="170" t="s">
+      <c r="B18" s="156" t="s">
         <v>395</v>
       </c>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="169">
+      <c r="A19" s="155">
         <v>17</v>
       </c>
-      <c r="B19" s="170" t="s">
+      <c r="B19" s="156" t="s">
         <v>397</v>
       </c>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="156"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="169">
+      <c r="A20" s="155"/>
+      <c r="B20" s="156" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="156"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="155">
         <v>18</v>
       </c>
-      <c r="B20" s="170" t="s">
+      <c r="B21" s="156" t="s">
         <v>398</v>
       </c>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="169">
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="156"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="155">
         <v>19</v>
       </c>
-      <c r="B21" s="170" t="s">
+      <c r="B22" s="156" t="s">
         <v>399</v>
       </c>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="169">
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="156"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="155"/>
+      <c r="B23" s="156" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="156"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="155"/>
+      <c r="B24" s="156" t="s">
+        <v>444</v>
+      </c>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="156"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="156"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="155">
         <v>20</v>
       </c>
-      <c r="B22" s="170" t="s">
+      <c r="B25" s="156" t="s">
         <v>387</v>
       </c>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="169">
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="156"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="155">
         <v>21</v>
       </c>
-      <c r="B23" s="170" t="s">
+      <c r="B26" s="156" t="s">
         <v>388</v>
       </c>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="169">
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="155">
         <v>22</v>
       </c>
-      <c r="B24" s="170" t="s">
+      <c r="B27" s="156" t="s">
         <v>400</v>
       </c>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="169">
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="155">
         <v>23</v>
       </c>
-      <c r="B25" s="170" t="s">
+      <c r="B28" s="156" t="s">
         <v>401</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="169">
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="155">
         <v>24</v>
       </c>
-      <c r="B26" s="170" t="s">
+      <c r="B29" s="156" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="169">
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="155">
         <v>25</v>
       </c>
-      <c r="B27" s="170" t="s">
+      <c r="B30" s="156" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="169">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="155">
         <v>26</v>
       </c>
-      <c r="B28" s="170" t="s">
+      <c r="B31" s="156" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="169">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="155">
         <v>27</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B32" s="156" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="169">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="155">
         <v>28</v>
       </c>
-      <c r="B30" s="170" t="s">
+      <c r="B33" s="156" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="169">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="155">
         <v>29</v>
       </c>
-      <c r="B31" s="170" t="s">
+      <c r="B34" s="156" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="169">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="155">
         <v>30</v>
       </c>
-      <c r="B32" s="170" t="s">
+      <c r="B35" s="156" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="169">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="155">
         <v>31</v>
       </c>
-      <c r="B33" s="170" t="s">
+      <c r="B36" s="156" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="169">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="155">
         <v>32</v>
       </c>
-      <c r="B34" s="170" t="s">
+      <c r="B37" s="156" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="169">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="155">
         <v>33</v>
       </c>
-      <c r="B35" s="170" t="s">
+      <c r="B38" s="156" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="169">
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="155">
         <v>34</v>
       </c>
-      <c r="B36" s="170" t="s">
+      <c r="B39" s="156" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="169">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="155">
         <v>35</v>
       </c>
-      <c r="B37" s="170" t="s">
+      <c r="B40" s="156" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="169">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="155">
         <v>36</v>
       </c>
-      <c r="B38" s="170" t="s">
+      <c r="B41" s="156" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="169">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="155">
         <v>37</v>
       </c>
-      <c r="B39" s="170" t="s">
+      <c r="B42" s="156" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="169">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="155">
         <v>38</v>
       </c>
-      <c r="B40" s="170" t="s">
+      <c r="B43" s="156" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="169">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="155">
         <v>39</v>
       </c>
-      <c r="B41" s="170" t="s">
+      <c r="B44" s="156" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="169">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="155">
         <v>40</v>
       </c>
-      <c r="B42" s="170" t="s">
+      <c r="B45" s="156" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="169">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="155">
         <v>41</v>
       </c>
-      <c r="B43" s="170" t="s">
+      <c r="B46" s="156" t="s">
         <v>419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="154">
+        <v>42</v>
+      </c>
+      <c r="B47" s="156" t="s">
+        <v>420</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="154">
+        <v>43</v>
+      </c>
+      <c r="B48" s="156" t="s">
+        <v>423</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="154">
+        <v>44</v>
+      </c>
+      <c r="B49" s="156" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="154">
+        <v>45</v>
+      </c>
+      <c r="B50" s="156" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="154">
+        <v>46</v>
+      </c>
+      <c r="B51" s="156" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="154">
+        <v>47</v>
+      </c>
+      <c r="B52" s="156" t="s">
+        <v>431</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="154">
+        <v>48</v>
+      </c>
+      <c r="B53" s="156" t="s">
+        <v>432</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="154">
+        <v>49</v>
+      </c>
+      <c r="B54" s="156" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="154">
+        <v>50</v>
+      </c>
+      <c r="B55" s="156" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="154">
+        <v>51</v>
+      </c>
+      <c r="B56" s="156" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="154">
+        <v>52</v>
+      </c>
+      <c r="B57" s="156" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="154">
+        <v>53</v>
+      </c>
+      <c r="B58" s="156" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="154">
+        <v>54</v>
+      </c>
+      <c r="B59" s="156" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="154">
+        <v>55</v>
+      </c>
+      <c r="B60" s="156" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="154">
+        <v>56</v>
+      </c>
+      <c r="B61" s="156" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="154">
+        <v>57</v>
+      </c>
+      <c r="B62" s="156" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="154">
+        <v>58</v>
+      </c>
+      <c r="B63" s="156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="154">
+        <v>59</v>
+      </c>
+      <c r="B64" s="156" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="154">
+        <v>60</v>
+      </c>
+      <c r="B65" s="156" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="154">
+        <v>61</v>
+      </c>
+      <c r="B66" s="156" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="154">
+        <v>62</v>
+      </c>
+      <c r="B67" s="156" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="154">
+        <v>63</v>
+      </c>
+      <c r="B68" s="156" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
